--- a/results/I3_N5_M2_T45_C150_DepCentral_s0_P4_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1837.063652301019</v>
+        <v>1318.718352253817</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.25725746793465</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.370503878367851</v>
+        <v>7.908099007898997</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.046898711441829</v>
+        <v>3.568767294178761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1386.270000000011</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>434.8600000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.77588400245558</v>
+        <v>36.72863473297091</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37.66223190247689</v>
+        <v>40.61498263299222</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>32.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.50010794158182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>43.79947631331252</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.49989205841818</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41.49915775529188</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1032,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1046,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1060,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1068,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1085,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1099,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1113,10 +1102,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1127,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1138,15 +1127,85 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1249,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.3950000000004</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -1260,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.4750000000004</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -1271,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>167.3200000000004</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1282,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>168.7700000000004</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
@@ -1293,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>166.2650000000004</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -1304,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>256.7950000000012</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -1315,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>285.5400000000012</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
@@ -1326,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>284.0350000000013</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15">
@@ -1337,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>293.9800000000012</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -1348,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>288.8950000000012</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -1359,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>156.56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1370,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>153.25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1381,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1392,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>156.73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1403,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>155.9399999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1414,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1425,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1436,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000000001</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1447,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1458,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1469,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>77.21999999999979</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28">
@@ -1480,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>87.34499999999979</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
@@ -1491,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>91.47999999999978</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
@@ -1502,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>91.85999999999977</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
@@ -1513,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>90.41499999999978</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -1524,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>156.56</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
@@ -1535,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.25</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
@@ -1546,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.41</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
@@ -1557,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.73</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
@@ -1568,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>155.9399999999993</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
@@ -1579,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>256.7950000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1590,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>285.5400000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1601,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>284.0350000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1612,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>293.9800000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1623,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>288.8950000000012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.560000000000002</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -1681,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1692,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1703,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.72999999999999</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
@@ -1714,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.939999999999344</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -1725,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>106.7950000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1736,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>135.5400000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1747,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.0350000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1758,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>143.9800000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1769,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>138.8950000000012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1937,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1948,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1959,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1970,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1981,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1992,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2003,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2014,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2025,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2094,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2124,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2135,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2146,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2157,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2165,10 +2224,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2179,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2190,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2201,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2212,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2220,10 +2279,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2231,10 +2290,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2242,10 +2301,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2253,10 +2312,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2264,12 +2323,23 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
